--- a/output/Resultados.xlsx
+++ b/output/Resultados.xlsx
@@ -7011,7 +7011,7 @@
         <v>74</v>
       </c>
       <c r="E2" t="n">
-        <v>8.83879105263998</v>
+        <v>50.2344151719549</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -7031,7 +7031,7 @@
         <v>75</v>
       </c>
       <c r="E3" t="n">
-        <v>15.0703303370428</v>
+        <v>85.6507667644657</v>
       </c>
       <c r="F3" t="n">
         <v>25</v>
@@ -7051,7 +7051,7 @@
         <v>76</v>
       </c>
       <c r="E4" t="n">
-        <v>25.747875188266</v>
+        <v>96.1011463658087</v>
       </c>
       <c r="F4" t="n">
         <v>50</v>
@@ -7071,7 +7071,7 @@
         <v>77</v>
       </c>
       <c r="E5" t="n">
-        <v>50.0784996194764</v>
+        <v>98.4967181875926</v>
       </c>
       <c r="F5" t="n">
         <v>75</v>
@@ -7111,7 +7111,7 @@
         <v>74</v>
       </c>
       <c r="E7" t="n">
-        <v>8.83299266255736</v>
+        <v>50.233030484377</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -7131,7 +7131,7 @@
         <v>75</v>
       </c>
       <c r="E8" t="n">
-        <v>15.0894300647009</v>
+        <v>85.8132491884736</v>
       </c>
       <c r="F8" t="n">
         <v>25</v>
@@ -7151,7 +7151,7 @@
         <v>76</v>
       </c>
       <c r="E9" t="n">
-        <v>25.7381288724063</v>
+        <v>96.1391291732405</v>
       </c>
       <c r="F9" t="n">
         <v>50</v>
@@ -7171,7 +7171,7 @@
         <v>77</v>
       </c>
       <c r="E10" t="n">
-        <v>50.0747775010603</v>
+        <v>98.4948225522732</v>
       </c>
       <c r="F10" t="n">
         <v>75</v>
@@ -7211,7 +7211,7 @@
         <v>74</v>
       </c>
       <c r="E12" t="n">
-        <v>9.05563569951464</v>
+        <v>52.4719995607774</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -7231,7 +7231,7 @@
         <v>75</v>
       </c>
       <c r="E13" t="n">
-        <v>14.9527308560559</v>
+        <v>86.6421434061711</v>
       </c>
       <c r="F13" t="n">
         <v>25</v>
@@ -7251,7 +7251,7 @@
         <v>76</v>
       </c>
       <c r="E14" t="n">
-        <v>25.6695968561459</v>
+        <v>96.2679806742067</v>
       </c>
       <c r="F14" t="n">
         <v>50</v>
@@ -7271,7 +7271,7 @@
         <v>77</v>
       </c>
       <c r="E15" t="n">
-        <v>50.0638388087844</v>
+        <v>98.5038981003624</v>
       </c>
       <c r="F15" t="n">
         <v>75</v>
@@ -7311,7 +7311,7 @@
         <v>74</v>
       </c>
       <c r="E17" t="n">
-        <v>9.06134694544963</v>
+        <v>52.5578748567046</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -7331,7 +7331,7 @@
         <v>75</v>
       </c>
       <c r="E18" t="n">
-        <v>14.9550330942208</v>
+        <v>86.7425960594789</v>
       </c>
       <c r="F18" t="n">
         <v>25</v>
@@ -7351,7 +7351,7 @@
         <v>76</v>
       </c>
       <c r="E19" t="n">
-        <v>25.6651902828827</v>
+        <v>96.3060707776303</v>
       </c>
       <c r="F19" t="n">
         <v>50</v>
@@ -7371,7 +7371,7 @@
         <v>77</v>
       </c>
       <c r="E20" t="n">
-        <v>50.0640556238847</v>
+        <v>98.5245725878947</v>
       </c>
       <c r="F20" t="n">
         <v>75</v>
@@ -7411,7 +7411,7 @@
         <v>74</v>
       </c>
       <c r="E22" t="n">
-        <v>7.13953416245387</v>
+        <v>31.7604856512141</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -7431,7 +7431,7 @@
         <v>75</v>
       </c>
       <c r="E23" t="n">
-        <v>14.7737493409422</v>
+        <v>65.7215783664459</v>
       </c>
       <c r="F23" t="n">
         <v>25</v>
@@ -7451,7 +7451,7 @@
         <v>76</v>
       </c>
       <c r="E24" t="n">
-        <v>26.5546009986664</v>
+        <v>86.3686534216336</v>
       </c>
       <c r="F24" t="n">
         <v>50</v>
@@ -7471,7 +7471,7 @@
         <v>77</v>
       </c>
       <c r="E25" t="n">
-        <v>50.2481158701113</v>
+        <v>94.2880794701987</v>
       </c>
       <c r="F25" t="n">
         <v>75</v>
@@ -7511,7 +7511,7 @@
         <v>74</v>
       </c>
       <c r="E27" t="n">
-        <v>7.13244637117871</v>
+        <v>31.7527659928459</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -7531,7 +7531,7 @@
         <v>75</v>
       </c>
       <c r="E28" t="n">
-        <v>14.787166454892</v>
+        <v>65.8306297313035</v>
       </c>
       <c r="F28" t="n">
         <v>25</v>
@@ -7551,7 +7551,7 @@
         <v>76</v>
       </c>
       <c r="E29" t="n">
-        <v>26.5658868375813</v>
+        <v>86.5152649529989</v>
       </c>
       <c r="F29" t="n">
         <v>50</v>
@@ -7571,7 +7571,7 @@
         <v>77</v>
       </c>
       <c r="E30" t="n">
-        <v>50.2569325061664</v>
+        <v>94.4014641044838</v>
       </c>
       <c r="F30" t="n">
         <v>75</v>
@@ -7611,7 +7611,7 @@
         <v>74</v>
       </c>
       <c r="E32" t="n">
-        <v>8.43368296168469</v>
+        <v>47.3034693445449</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -7631,7 +7631,7 @@
         <v>75</v>
       </c>
       <c r="E33" t="n">
-        <v>15.5634049666999</v>
+        <v>87.2931853240979</v>
       </c>
       <c r="F33" t="n">
         <v>25</v>
@@ -7651,7 +7651,7 @@
         <v>76</v>
       </c>
       <c r="E34" t="n">
-        <v>25.7432523525764</v>
+        <v>97.0872024439672</v>
       </c>
       <c r="F34" t="n">
         <v>50</v>
@@ -7671,7 +7671,7 @@
         <v>77</v>
       </c>
       <c r="E35" t="n">
-        <v>50.1129775932267</v>
+        <v>99.1772783642358</v>
       </c>
       <c r="F35" t="n">
         <v>75</v>
@@ -7711,7 +7711,7 @@
         <v>74</v>
       </c>
       <c r="E37" t="n">
-        <v>8.42157008596211</v>
+        <v>47.2226755889233</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -7731,7 +7731,7 @@
         <v>75</v>
       </c>
       <c r="E38" t="n">
-        <v>15.5834621579141</v>
+        <v>87.3818979743576</v>
       </c>
       <c r="F38" t="n">
         <v>25</v>
@@ -7751,7 +7751,7 @@
         <v>76</v>
       </c>
       <c r="E39" t="n">
-        <v>25.7346235195954</v>
+        <v>97.0803184447709</v>
       </c>
       <c r="F39" t="n">
         <v>50</v>
@@ -7771,7 +7771,7 @@
         <v>77</v>
       </c>
       <c r="E40" t="n">
-        <v>50.1135165553062</v>
+        <v>99.1766860707615</v>
       </c>
       <c r="F40" t="n">
         <v>75</v>
@@ -7811,7 +7811,7 @@
         <v>74</v>
       </c>
       <c r="E42" t="n">
-        <v>8.68823959619696</v>
+        <v>49.7323487427254</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
@@ -7831,7 +7831,7 @@
         <v>75</v>
       </c>
       <c r="E43" t="n">
-        <v>15.4025441509705</v>
+        <v>88.1656967168113</v>
       </c>
       <c r="F43" t="n">
         <v>25</v>
@@ -7851,7 +7851,7 @@
         <v>76</v>
       </c>
       <c r="E44" t="n">
-        <v>25.6601963863944</v>
+        <v>97.1491709673877</v>
       </c>
       <c r="F44" t="n">
         <v>50</v>
@@ -7871,7 +7871,7 @@
         <v>77</v>
       </c>
       <c r="E45" t="n">
-        <v>50.0955555289124</v>
+        <v>99.1215548479192</v>
       </c>
       <c r="F45" t="n">
         <v>75</v>
@@ -7911,7 +7911,7 @@
         <v>74</v>
       </c>
       <c r="E47" t="n">
-        <v>8.69950262224923</v>
+        <v>49.8239218823452</v>
       </c>
       <c r="F47" t="n">
         <v>0</v>
@@ -7931,7 +7931,7 @@
         <v>75</v>
       </c>
       <c r="E48" t="n">
-        <v>15.3858781582911</v>
+        <v>88.1182321262154</v>
       </c>
       <c r="F48" t="n">
         <v>25</v>
@@ -7951,7 +7951,7 @@
         <v>76</v>
       </c>
       <c r="E49" t="n">
-        <v>25.6692423557331</v>
+        <v>97.1893478924233</v>
       </c>
       <c r="F49" t="n">
         <v>50</v>
@@ -7971,7 +7971,7 @@
         <v>77</v>
       </c>
       <c r="E50" t="n">
-        <v>50.1005123538035</v>
+        <v>99.1703298062728</v>
       </c>
       <c r="F50" t="n">
         <v>75</v>
@@ -8011,7 +8011,7 @@
         <v>74</v>
       </c>
       <c r="E52" t="n">
-        <v>6.11951160346082</v>
+        <v>26.1037527593819</v>
       </c>
       <c r="F52" t="n">
         <v>0</v>
@@ -8031,7 +8031,7 @@
         <v>75</v>
       </c>
       <c r="E53" t="n">
-        <v>15.615751596992</v>
+        <v>66.6114790286976</v>
       </c>
       <c r="F53" t="n">
         <v>25</v>
@@ -8051,7 +8051,7 @@
         <v>76</v>
       </c>
       <c r="E54" t="n">
-        <v>26.9669281151451</v>
+        <v>88.9279801324503</v>
       </c>
       <c r="F54" t="n">
         <v>50</v>
@@ -8071,7 +8071,7 @@
         <v>77</v>
       </c>
       <c r="E55" t="n">
-        <v>50.4520093798011</v>
+        <v>96.3921081677704</v>
       </c>
       <c r="F55" t="n">
         <v>75</v>
@@ -8111,7 +8111,7 @@
         <v>74</v>
       </c>
       <c r="E57" t="n">
-        <v>6.11512545222284</v>
+        <v>26.0835205057816</v>
       </c>
       <c r="F57" t="n">
         <v>0</v>
@@ -8131,7 +8131,7 @@
         <v>75</v>
       </c>
       <c r="E58" t="n">
-        <v>15.6052228690675</v>
+        <v>66.5626819732135</v>
       </c>
       <c r="F58" t="n">
         <v>25</v>
@@ -8151,7 +8151,7 @@
         <v>76</v>
       </c>
       <c r="E59" t="n">
-        <v>26.9997757169743</v>
+        <v>89.081607187422</v>
       </c>
       <c r="F59" t="n">
         <v>50</v>
@@ -8171,7 +8171,7 @@
         <v>77</v>
       </c>
       <c r="E60" t="n">
-        <v>50.4714819257136</v>
+        <v>96.5518675650944</v>
       </c>
       <c r="F60" t="n">
         <v>75</v>
